--- a/Python Session/python_session.xlsx
+++ b/Python Session/python_session.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Materials-master\Python Session\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Materials\Python Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="348">
   <si>
     <t>python keyword</t>
   </si>
@@ -1163,6 +1163,20 @@
   </si>
   <si>
     <t>Operators</t>
+  </si>
+  <si>
+    <t>webx</t>
+  </si>
+  <si>
+    <t>Python Training 
+Meeting Details:
+Date &amp; Time: 06th May to 10th Jun, 10.30 am to
+12 pm IST.
+WebEx Link: https://tcs.webex.com/tcs/j.php?
+MTID=m43053b6a4a01946e6299c52357fc81da
+Meeting Number: 2517 713 7478.
+Password: Tata@123.
+All the very best!!</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1292,6 +1306,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3622,18 +3639,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:B5"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1"/>
+    <col min="2" max="2" width="73.77734375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>345</v>

--- a/Python Session/python_session.xlsx
+++ b/Python Session/python_session.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="practice" sheetId="2" r:id="rId2"/>
     <sheet name="Refrence" sheetId="3" r:id="rId3"/>
+    <sheet name="cmd" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="351">
   <si>
     <t>python keyword</t>
   </si>
@@ -59,9 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">control  flow </t>
-  </si>
-  <si>
-    <t>lists</t>
   </si>
   <si>
     <t>tuples</t>
@@ -1178,12 +1176,24 @@
 Password: Tata@123.
 All the very best!!</t>
   </si>
+  <si>
+    <t>lists &amp; string</t>
+  </si>
+  <si>
+    <t>jupyter nbconvert --to script str2.ipynb</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>jupyter notebook to py</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1239,25 +1249,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -1267,13 +1263,25 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1285,11 +1293,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1303,14 +1312,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1592,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1606,21 +1615,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="C1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>317</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1628,11 +1637,11 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>318</v>
+      <c r="B3" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1641,11 +1650,11 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>318</v>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1654,11 +1663,11 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>318</v>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1667,11 +1676,11 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>318</v>
+      <c r="B6" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -1679,11 +1688,11 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>319</v>
+      <c r="A7" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1691,22 +1700,22 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>319</v>
+      <c r="B8" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>319</v>
+      <c r="B9" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -1714,22 +1723,22 @@
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>319</v>
+      <c r="B10" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1737,52 +1746,52 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>343</v>
+      <c r="A14" s="13" t="s">
+        <v>342</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1790,11 +1799,11 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
+      <c r="A17" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -1803,10 +1812,10 @@
     </row>
     <row r="18" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1815,10 +1824,10 @@
     </row>
     <row r="19" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1827,10 +1836,10 @@
     </row>
     <row r="20" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1839,10 +1848,10 @@
     </row>
     <row r="21" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1851,10 +1860,10 @@
     </row>
     <row r="22" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -1863,10 +1872,10 @@
     </row>
     <row r="23" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -1875,10 +1884,10 @@
     </row>
     <row r="24" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -1887,10 +1896,10 @@
     </row>
     <row r="25" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -1899,10 +1908,10 @@
     </row>
     <row r="26" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1911,10 +1920,10 @@
     </row>
     <row r="27" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1923,10 +1932,10 @@
     </row>
     <row r="28" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
@@ -1935,10 +1944,10 @@
     </row>
     <row r="29" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1947,10 +1956,10 @@
     </row>
     <row r="30" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1959,10 +1968,10 @@
     </row>
     <row r="31" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -1971,10 +1980,10 @@
     </row>
     <row r="32" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
@@ -1983,10 +1992,10 @@
     </row>
     <row r="33" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -1995,7 +2004,7 @@
     </row>
     <row r="34" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="2"/>
       <c r="E34" s="2"/>
@@ -2041,1039 +2050,1039 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
         <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" t="s">
         <v>88</v>
-      </c>
-      <c r="C70" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
         <v>99</v>
-      </c>
-      <c r="C82" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" t="s">
         <v>112</v>
-      </c>
-      <c r="C97" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" t="s">
         <v>120</v>
-      </c>
-      <c r="C107" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" t="s">
         <v>128</v>
-      </c>
-      <c r="B115" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" t="s">
         <v>141</v>
-      </c>
-      <c r="C129" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B145" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149" t="s">
         <v>159</v>
-      </c>
-      <c r="C149" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>177</v>
+      </c>
+      <c r="C169" t="s">
         <v>178</v>
-      </c>
-      <c r="C169" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C172" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>188</v>
+      </c>
+      <c r="C180" t="s">
         <v>189</v>
-      </c>
-      <c r="C180" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>195</v>
+      </c>
+      <c r="C189" t="s">
         <v>196</v>
-      </c>
-      <c r="C189" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C192" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C193" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C197" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C203" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="C214" t="s">
         <v>216</v>
-      </c>
-      <c r="C214" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
+        <v>218</v>
+      </c>
+      <c r="E217" t="s">
         <v>219</v>
       </c>
-      <c r="E217" t="s">
+      <c r="F217" t="s">
         <v>220</v>
       </c>
-      <c r="F217" t="s">
+      <c r="G217" t="s">
         <v>221</v>
-      </c>
-      <c r="G217" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -3090,7 +3099,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D220">
         <v>5</v>
@@ -3107,10 +3116,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>224</v>
+      </c>
+      <c r="C222" t="s">
         <v>225</v>
-      </c>
-      <c r="C222" t="s">
-        <v>226</v>
       </c>
       <c r="D222">
         <v>7</v>
@@ -3127,504 +3136,504 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C225" t="s">
         <v>227</v>
-      </c>
-      <c r="C225" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="C236" t="s">
         <v>238</v>
-      </c>
-      <c r="C236" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C257" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C260" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C278" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>274</v>
+      </c>
+      <c r="C280" t="s">
         <v>275</v>
-      </c>
-      <c r="C280" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C289" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C301" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C302" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C315" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C317" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C328" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C329" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3641,7 +3650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3653,18 +3662,18 @@
   <sheetData>
     <row r="3" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>346</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5" s="13" t="s">
         <v>344</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3673,4 +3682,36 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python Session/python_session.xlsx
+++ b/Python Session/python_session.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="357">
   <si>
     <t>python keyword</t>
   </si>
@@ -1187,6 +1187,24 @@
   </si>
   <si>
     <t>jupyter notebook to py</t>
+  </si>
+  <si>
+    <t>pip uninstall MySQL_python</t>
+  </si>
+  <si>
+    <t>pip install --upgrade django</t>
+  </si>
+  <si>
+    <t>pip --version</t>
+  </si>
+  <si>
+    <t>pip install --upgrade pip</t>
+  </si>
+  <si>
+    <t>python -m pip install pip==18.0 (or any other version)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pip3 install --upgrade numpy</t>
   </si>
 </sst>
 </file>
@@ -3650,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3686,10 +3704,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3711,6 +3729,41 @@
         <v>350</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Python Session/python_session.xlsx
+++ b/Python Session/python_session.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -1619,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1865,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3668,7 +3668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -3706,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Python Session/python_session.xlsx
+++ b/Python Session/python_session.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="344">
   <si>
     <t>python keyword</t>
   </si>
@@ -1073,18 +1073,6 @@
     <t>6.3.Display the lowest salary for scientist designation.</t>
   </si>
   <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>day1</t>
-  </si>
-  <si>
-    <t>day2</t>
-  </si>
-  <si>
-    <t>day3</t>
-  </si>
-  <si>
     <t>Python intro</t>
   </si>
   <si>
@@ -1094,37 +1082,10 @@
     <t>comments &amp; Indendatio in python</t>
   </si>
   <si>
-    <t>day4</t>
-  </si>
-  <si>
-    <t>Taken days</t>
-  </si>
-  <si>
-    <t>day5</t>
-  </si>
-  <si>
     <t>Loops</t>
   </si>
   <si>
-    <t>day6</t>
-  </si>
-  <si>
-    <t>day7</t>
-  </si>
-  <si>
-    <t>day8</t>
-  </si>
-  <si>
-    <t>day9</t>
-  </si>
-  <si>
     <t>Numpy</t>
-  </si>
-  <si>
-    <t>day10</t>
-  </si>
-  <si>
-    <t>day11</t>
   </si>
   <si>
     <t>day12</t>
@@ -1619,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1633,37 +1594,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="B2" s="10"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
+      <c r="B3" s="10"/>
       <c r="D3" s="1"/>
       <c r="E3" s="7"/>
     </row>
@@ -1671,12 +1616,7 @@
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
+      <c r="B4" s="10"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
     </row>
@@ -1684,12 +1624,7 @@
       <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
+      <c r="B5" s="10"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
@@ -1697,231 +1632,144 @@
       <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
+      <c r="B6" s="10"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
+      <c r="B9" s="10"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>322</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -1929,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1941,7 +1789,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1953,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
@@ -1962,10 +1810,10 @@
     </row>
     <row r="29" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1977,7 +1825,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1986,10 +1834,10 @@
     </row>
     <row r="31" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -2001,7 +1849,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
@@ -2013,7 +1861,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -2039,7 +1887,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40">
         <f>SUM(C2:C38)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3669,7 +3517,7 @@
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3680,18 +3528,18 @@
   <sheetData>
     <row r="3" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -3706,7 +3554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3718,50 +3566,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/Python Session/python_session.xlsx
+++ b/Python Session/python_session.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="349">
   <si>
     <t>python keyword</t>
   </si>
@@ -1166,6 +1166,22 @@
   </si>
   <si>
     <t xml:space="preserve"> pip3 install --upgrade numpy</t>
+  </si>
+  <si>
+    <t>from sys import getrecursionlimit
+print(getrecursionlimit())</t>
+  </si>
+  <si>
+    <t>Set-ExecutionPolicy Unrestricted -Force</t>
+  </si>
+  <si>
+    <t>virtualenv' won't activate on Windows</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/18713086/virtualenv-wont-activate-on-windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C:\Users\LENOVO\AppData\Local\Programs\Python\Python37\python -m venv venv37</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1293,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1296,6 +1312,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1580,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1735,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="2"/>
@@ -1725,7 +1743,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="2"/>
@@ -1741,7 +1759,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="2"/>
@@ -1749,7 +1767,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2"/>
@@ -1757,7 +1775,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="2"/>
@@ -1765,7 +1783,7 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="2"/>
@@ -3552,16 +3570,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3631,32 @@
         <v>343</v>
       </c>
     </row>
+    <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Python Session/python_session.xlsx
+++ b/Python Session/python_session.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="351">
   <si>
     <t>python keyword</t>
   </si>
@@ -1182,6 +1182,12 @@
   </si>
   <si>
     <t xml:space="preserve"> C:\Users\LENOVO\AppData\Local\Programs\Python\Python37\python -m venv venv37</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>khan102030</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -3570,10 +3576,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3652,6 +3658,14 @@
         <v>348</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B25" t="s">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1"/>

--- a/Python Session/python_session.xlsx
+++ b/Python Session/python_session.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="352">
   <si>
     <t>python keyword</t>
   </si>
@@ -1188,6 +1188,9 @@
   </si>
   <si>
     <t>khan102030</t>
+  </si>
+  <si>
+    <t>python -m venv venv310</t>
   </si>
 </sst>
 </file>
@@ -1285,12 +1288,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1299,7 +1317,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1320,6 +1338,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1604,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1796,8 +1815,8 @@
       <c r="C25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1808,8 +1827,8 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:5" ht="19.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1820,7 +1839,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="19.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -3541,7 +3560,7 @@
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3579,7 +3598,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3658,6 +3677,11 @@
         <v>348</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>351</v>
+      </c>
+    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>349</v>

--- a/Python Session/python_session.xlsx
+++ b/Python Session/python_session.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -1623,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1864,7 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1900,7 +1900,7 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3560,7 +3560,7 @@
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3597,7 +3597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>

--- a/Python Session/python_session.xlsx
+++ b/Python Session/python_session.xlsx
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1852,7 +1852,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="13" t="s">
         <v>321</v>
       </c>
       <c r="B29" s="2" t="s">

--- a/Python Session/python_session.xlsx
+++ b/Python Session/python_session.xlsx
@@ -1623,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1840,7 +1840,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="19.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
